--- a/tutorials/activity_browser/exercises/scenario_table.xlsx
+++ b/tutorials/activity_browser/exercises/scenario_table.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Project Environments\parametric_LCA\dds-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\winter-school-psi-2025\tutorials\activity_browser\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6B4A8A-3B45-4506-B51B-73AF70F08652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE1FD1-5BBF-4315-9FDA-40C8C62ECBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Group</t>
   </si>
@@ -53,6 +66,21 @@
   </si>
   <si>
     <t>icev_group</t>
+  </si>
+  <si>
+    <t>another case</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Wind electricity</t>
   </si>
 </sst>
 </file>
@@ -422,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -443,20 +469,20 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -473,13 +499,13 @@
         <v>0.19687499999999999</v>
       </c>
       <c r="E2">
-        <v>0.19687499999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.19687499999999999</v>
+        <v>0.05</v>
       </c>
       <c r="G2">
-        <v>0.19687499999999999</v>
+        <v>0.21</v>
       </c>
       <c r="H2">
         <v>0.19687499999999999</v>
@@ -548,19 +574,19 @@
         <v>3.1147540983606561</v>
       </c>
       <c r="D5">
-        <v>3.1147540983606561</v>
+        <v>3.5</v>
       </c>
       <c r="E5">
-        <v>3.1147540983606561</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3.1147540983606561</v>
+        <v>3.05</v>
       </c>
       <c r="G5">
-        <v>3.1147540983606561</v>
+        <v>3.6</v>
       </c>
       <c r="H5">
-        <v>3.1147540983606561</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,10 +626,10 @@
         <v>1.5E-3</v>
       </c>
       <c r="D7">
-        <v>1.5E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F7">
         <v>1.5E-3</v>
